--- a/matriz.xlsx
+++ b/matriz.xlsx
@@ -5,7 +5,8 @@
   <sheets>
     <sheet state="visible" name="Matriz Score" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Vector Ponderacion" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Mapping Respuestas" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Respuestas Index" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Fillout Codes" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="101">
   <si>
     <t>Index</t>
   </si>
@@ -277,6 +278,45 @@
   </si>
   <si>
     <t>Pond Factor</t>
+  </si>
+  <si>
+    <t>q1_size</t>
+  </si>
+  <si>
+    <t>q2_budget</t>
+  </si>
+  <si>
+    <t>q3_pricing</t>
+  </si>
+  <si>
+    <t>q4_time</t>
+  </si>
+  <si>
+    <t>q5_excel</t>
+  </si>
+  <si>
+    <t>q6_integrations</t>
+  </si>
+  <si>
+    <t>q7_cases</t>
+  </si>
+  <si>
+    <t>q8_reporting</t>
+  </si>
+  <si>
+    <t>q9_modeling</t>
+  </si>
+  <si>
+    <t>q10_collaboration</t>
+  </si>
+  <si>
+    <t>q11_ia</t>
+  </si>
+  <si>
+    <t>q12_scalability</t>
+  </si>
+  <si>
+    <t>q13_implementation</t>
   </si>
 </sst>
 </file>
@@ -369,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -391,6 +431,9 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -398,6 +441,9 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -415,6 +461,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1262,7 +1312,7 @@
       <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="6">
@@ -3213,7 +3263,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3227,7 +3277,7 @@
       <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="9">
         <v>4.5</v>
       </c>
     </row>
@@ -3241,7 +3291,7 @@
       <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <v>4.5</v>
       </c>
     </row>
@@ -3255,7 +3305,7 @@
       <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>4.5</v>
       </c>
     </row>
@@ -3269,7 +3319,7 @@
       <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>4.5</v>
       </c>
     </row>
@@ -3283,10 +3333,10 @@
       <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>4.5</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7">
       <c r="A7" s="3">
@@ -3421,7 +3471,7 @@
       <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="6">
@@ -3466,7 +3516,7 @@
       <c r="C19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="9">
         <v>4.5</v>
       </c>
     </row>
@@ -3480,7 +3530,7 @@
       <c r="C20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="9">
         <v>4.5</v>
       </c>
     </row>
@@ -3494,7 +3544,7 @@
       <c r="C21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="9">
         <v>4.5</v>
       </c>
     </row>
@@ -3508,7 +3558,7 @@
       <c r="C22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="9">
         <v>4.5</v>
       </c>
     </row>
@@ -4264,7 +4314,7 @@
       <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4772,6 +4822,129 @@
       </c>
       <c r="C62" s="5" t="s">
         <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="46.0"/>
+    <col customWidth="1" min="2" max="2" width="16.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/matriz.xlsx
+++ b/matriz.xlsx
@@ -409,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -441,6 +441,9 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -4143,7 +4146,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4847,7 +4850,7 @@
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4855,7 +4858,7 @@
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4863,7 +4866,7 @@
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4871,7 +4874,7 @@
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4879,7 +4882,7 @@
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4887,7 +4890,7 @@
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4895,7 +4898,7 @@
       <c r="A7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4903,7 +4906,7 @@
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4911,7 +4914,7 @@
       <c r="A9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4919,7 +4922,7 @@
       <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4927,7 +4930,7 @@
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4935,7 +4938,7 @@
       <c r="A12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4943,7 +4946,7 @@
       <c r="A13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>100</v>
       </c>
     </row>
